--- a/Запросы_SQL04.03.2020.xlsx
+++ b/Запросы_SQL04.03.2020.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Установить внешний ключ на другую таблицу в существующем столбце</t>
   </si>
@@ -155,107 +155,6 @@
   </si>
   <si>
     <t>Подсчёт количества постов пользователей через COUNT</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SELECT u.*, r.*, t.*, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(ti.seconds) as total
-FROM users as u
-JOIN roles as к ON r.id=u.role_id
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LEFT JOIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> teams as t ON t.id=u.team_id
-JOIN timer as ti ON ti.user_id=u.id
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WHERE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> u.sex='w'
-GROUP BY u.id
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HAVING</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> total &gt;2000
-ORDER BY total</t>
-    </r>
   </si>
   <si>
     <t>Соединение 4 таблиц, где есть жесткая привязка - JOIN, где привязка необязательная (есть значения без привязок) - LEFT JOIN, он же LEFT OUTER JOIN. Из  таблицы timer мы выбираем значения потраченного времени и выводим не все отдельные строки её, а суммируем потраченное время для каждого юзера.   Фильтром перед отбором WHERE выводим по женщинам.   Фильтр HAVING выводит из финального результата только тех, кто потратил суммарно больше 2000</t>
@@ -627,9 +526,6 @@
   </si>
   <si>
     <t>Время, в скобках - глубина дробной части секунд</t>
-  </si>
-  <si>
-    <t>BOOL</t>
   </si>
   <si>
     <t>Значение, которое выбирается из заданного списка</t>
@@ -737,9 +633,6 @@
   </si>
   <si>
     <t>Простое удаление индекса</t>
-  </si>
-  <si>
-    <t>Логическое значение</t>
   </si>
   <si>
     <t>DEFAULT CURRENT_TIMESTAMP</t>
@@ -2064,17 +1957,206 @@
       <t>WRITE;</t>
     </r>
   </si>
+  <si>
+    <t>DEFAULT NULL</t>
+  </si>
+  <si>
+    <t>По умолчанию отсутствие данных</t>
+  </si>
+  <si>
+    <t>BOOL DEFAULT TRUE</t>
+  </si>
+  <si>
+    <t>Логическое значение со значением TRUE по умолчанию</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT u.*, r.*, t.*, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(ti.seconds) as total
+FROM users as u
+JOIN roles as r ON r.id=u.role_id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LEFT JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> teams as t ON t.id=u.team_id
+JOIN timer as ti ON ti.user_id=u.id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> u.sex='w'
+GROUP BY u.id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HAVING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> total &gt;2000
+ORDER BY total</t>
+    </r>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>Характеристика ORDER BY, выводящая в обратном порядке</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE users (
+                     id INT UNSIGNED NOT NULL PRIMARY KEY AUTO_INCREMENT,
+                     user VARCHAR (30) NOT NULL,
+                     age </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TINYINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UNSIGNED DEFAULT NULL,
+                     phone_number VARCHAR (14) DEFAULT '')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREATE TABLE orders (
+    id INT UNSIGNED NOT NULL PRIMARY KEY AUTO_INCREMENT,
+    user_id INT UNSIGNED DEFAULT NULL,
+    room INT UNSIGNED NOT NULL,
+    datetime DATETIME DEFAULT CURRENT_TIMESTAMP,
+    goods SET ('tv', 'fridge', 'PS4', 'pool', 'conditioner', 'wifi', 'bar') DEFAULT NULL,
+    price DECIMAL (10, 2) NOT NULL,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    FOREIGN KEY (user_id) REFERENCES users(id)
+    ON DELETE SET NULL)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2184,6 +2266,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2264,7 +2354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2272,16 +2362,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2290,52 +2380,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2621,14 +2720,14 @@
   <dimension ref="C3:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61" style="1" customWidth="1"/>
     <col min="4" max="4" width="88" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -2642,49 +2741,49 @@
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -2692,43 +2791,43 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>54</v>
+      <c r="C11" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="3:4" ht="90" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
@@ -2736,34 +2835,42 @@
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="19"/>
+      <c r="C17" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
@@ -2778,47 +2885,51 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="3:4" ht="135" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="C27" s="25"/>
+      <c r="D27" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="24" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="19"/>
+      <c r="C29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="31" spans="3:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="C31" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>121</v>
+      <c r="C31" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
@@ -2834,25 +2945,25 @@
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="19"/>
+      <c r="C35" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
@@ -2876,33 +2987,33 @@
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="19"/>
+      <c r="C43" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="45" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
@@ -2914,17 +3025,17 @@
       <c r="D48" s="6"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
@@ -2939,7 +3050,7 @@
       <c r="C53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2979,12 +3090,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="3:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" ht="135" x14ac:dyDescent="0.25">
       <c r="C59" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
@@ -2996,41 +3107,41 @@
       <c r="D61" s="6"/>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="19"/>
+      <c r="C62" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="66" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
@@ -3038,25 +3149,25 @@
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="21"/>
+      <c r="C68" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="3:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C69" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="3:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C70" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
@@ -3068,25 +3179,25 @@
       <c r="D72" s="12"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" s="19"/>
+      <c r="C73" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="21"/>
     </row>
     <row r="74" spans="3:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C74" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
@@ -3095,34 +3206,34 @@
     </row>
     <row r="77" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C77" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C79" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C80" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.25">
@@ -3131,10 +3242,10 @@
     </row>
     <row r="82" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C82" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
@@ -3143,34 +3254,34 @@
     </row>
     <row r="84" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C84" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="3:4" ht="90" x14ac:dyDescent="0.25">
       <c r="C85" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C86" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C87" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.25">
@@ -3183,18 +3294,18 @@
     </row>
     <row r="90" spans="3:4" ht="90" x14ac:dyDescent="0.25">
       <c r="C90" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.25">
@@ -3206,58 +3317,58 @@
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D94" s="19"/>
+      <c r="C94" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="21"/>
     </row>
     <row r="95" spans="3:4" ht="135" x14ac:dyDescent="0.25">
       <c r="C95" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D96" s="8"/>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D97" s="17"/>
+      <c r="C97" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" s="19"/>
     </row>
     <row r="98" spans="3:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C98" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C99" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C100" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D101" s="2"/>
     </row>
@@ -3278,41 +3389,41 @@
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D106" s="17"/>
+      <c r="C106" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" s="19"/>
     </row>
     <row r="107" spans="3:4" ht="105" x14ac:dyDescent="0.25">
       <c r="C107" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="345" x14ac:dyDescent="0.25">
       <c r="C110" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.25">
@@ -3324,17 +3435,17 @@
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D113" s="17"/>
+      <c r="C113" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113" s="19"/>
     </row>
     <row r="114" spans="3:4" ht="120" x14ac:dyDescent="0.25">
       <c r="C114" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.25">
@@ -3342,33 +3453,33 @@
       <c r="D115" s="2"/>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D116" s="17"/>
+      <c r="C116" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D116" s="19"/>
     </row>
     <row r="117" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C117" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C118" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C119" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.25">
@@ -3384,17 +3495,17 @@
       <c r="D122" s="2"/>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C123" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D123" s="17"/>
+      <c r="C123" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D123" s="19"/>
     </row>
     <row r="124" spans="3:4" ht="120" x14ac:dyDescent="0.25">
       <c r="C124" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.25">
@@ -3406,31 +3517,31 @@
       <c r="D126" s="2"/>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C127" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D127" s="17"/>
+      <c r="C127" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D127" s="19"/>
     </row>
     <row r="128" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D128" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C129" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D129" s="17"/>
+      <c r="D129" s="19"/>
     </row>
     <row r="130" spans="3:4" ht="405" x14ac:dyDescent="0.25">
       <c r="C130" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.25">
@@ -3438,47 +3549,47 @@
       <c r="D131" s="2"/>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C132" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D132" s="17"/>
+      <c r="C132" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D132" s="19"/>
     </row>
     <row r="133" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C133" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D133" s="23" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D134" s="24" t="s">
         <v>145</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C135" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D135" s="23" t="s">
-        <v>153</v>
+        <v>144</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C136" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D136" s="17"/>
+      <c r="C136" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136" s="19"/>
     </row>
     <row r="137" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C137" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D137" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.25">
@@ -3507,11 +3618,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C136:D136"/>
     <mergeCell ref="C113:D113"/>
     <mergeCell ref="C116:D116"/>
     <mergeCell ref="C4:D4"/>
@@ -3527,6 +3633,11 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C136:D136"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
